--- a/DAAVDATA.xlsx
+++ b/DAAVDATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mathi\OneDrive\Dokumenter\UNIVERSITY\DAAV Project 2023\DAAVProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B75EFA-B1AA-4CFE-A605-36E689B1CF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7046ECB5-4592-45B3-85A9-AF180FD33372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2505" windowWidth="21600" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4890" yWindow="675" windowWidth="12570" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t xml:space="preserve">Mocha </t>
   </si>
   <si>
-    <t xml:space="preserve">Frappuccino </t>
-  </si>
-  <si>
     <t xml:space="preserve">Iced Latte </t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Caffeine (mg) Costa</t>
+  </si>
+  <si>
+    <t>Frappuccino / Frappé</t>
   </si>
 </sst>
 </file>
@@ -135,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,30 +150,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
-        <bgColor rgb="FFEA9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -184,41 +166,10 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -278,11 +229,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -293,28 +264,15 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,16 +280,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,13 +369,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -656,12 +620,12 @@
   <dimension ref="B2:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
@@ -673,33 +637,43 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="3" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="22"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="13"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>455</v>
+      </c>
+      <c r="D3" s="20">
+        <v>382</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1">
@@ -711,55 +685,55 @@
       <c r="E4" s="1">
         <v>33</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <v>100</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
-        <v>1</v>
+      <c r="B5" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>50</v>
+        <v>455</v>
       </c>
       <c r="D5" s="1">
-        <v>60</v>
+        <v>499</v>
       </c>
       <c r="E5" s="1">
-        <v>66</v>
-      </c>
-      <c r="F5" s="14">
-        <v>200</v>
+        <v>33</v>
+      </c>
+      <c r="F5" s="11">
+        <v>100</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="23" t="s">
-        <v>2</v>
+      <c r="B6" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>75</v>
+        <v>455</v>
       </c>
       <c r="D6" s="1">
-        <v>90</v>
+        <v>488</v>
       </c>
       <c r="E6" s="1">
-        <v>99</v>
-      </c>
-      <c r="F6" s="14">
-        <v>325</v>
+        <v>50</v>
+      </c>
+      <c r="F6" s="10">
+        <v>210</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1">
@@ -771,7 +745,7 @@
       <c r="E7" s="1">
         <v>66</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>141</v>
       </c>
       <c r="H7" s="4"/>
@@ -779,119 +753,119 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="23" t="s">
-        <v>4</v>
+      <c r="B8" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1">
         <v>66</v>
       </c>
-      <c r="F8" s="14">
-        <v>241</v>
+      <c r="F8" s="10">
+        <v>200</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="23" t="s">
-        <v>9</v>
+      <c r="B9" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>455</v>
       </c>
       <c r="D9" s="1">
-        <v>504</v>
+        <v>364</v>
       </c>
       <c r="E9" s="1">
-        <v>33</v>
-      </c>
-      <c r="F9" s="15">
-        <v>100</v>
+        <v>66</v>
+      </c>
+      <c r="F9" s="10">
+        <v>200</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
-        <v>11</v>
+      <c r="B10" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>455</v>
       </c>
       <c r="D10" s="1">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="E10" s="1">
-        <v>50</v>
-      </c>
-      <c r="F10" s="14">
-        <v>210</v>
+        <v>66</v>
+      </c>
+      <c r="F10" s="10">
+        <v>200</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
-        <v>10</v>
+      <c r="B11" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>455</v>
+        <v>227</v>
       </c>
       <c r="D11" s="1">
-        <v>473</v>
+        <v>300</v>
       </c>
       <c r="E11" s="1">
         <v>66</v>
       </c>
-      <c r="F11" s="14">
-        <v>200</v>
+      <c r="F11" s="10">
+        <v>241</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
-        <v>6</v>
+      <c r="B12" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="1">
         <v>455</v>
       </c>
       <c r="D12" s="1">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="E12" s="1">
-        <v>66</v>
-      </c>
-      <c r="F12" s="14">
-        <v>200</v>
+        <v>136</v>
+      </c>
+      <c r="F12" s="10">
+        <v>256</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="23" t="s">
-        <v>5</v>
+      <c r="B13" s="16" t="s">
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>455</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1">
-        <v>362</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1">
-        <v>66</v>
-      </c>
-      <c r="F13" s="14">
+        <v>99</v>
+      </c>
+      <c r="F13" s="10">
         <v>325</v>
       </c>
       <c r="H13" s="4"/>
@@ -899,19 +873,19 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="s">
-        <v>8</v>
+      <c r="B14" s="16" t="s">
+        <v>3</v>
       </c>
       <c r="C14" s="1">
         <v>455</v>
       </c>
       <c r="D14" s="1">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="E14" s="1">
-        <v>66</v>
-      </c>
-      <c r="F14" s="14">
+        <v>99</v>
+      </c>
+      <c r="F14" s="10">
         <v>325</v>
       </c>
       <c r="H14" s="4"/>
@@ -919,19 +893,19 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
-        <v>3</v>
+      <c r="B15" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>455</v>
       </c>
       <c r="D15" s="1">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E15" s="1">
-        <v>99</v>
-      </c>
-      <c r="F15" s="14">
+        <v>66</v>
+      </c>
+      <c r="F15" s="10">
         <v>325</v>
       </c>
       <c r="H15" s="4"/>
@@ -939,41 +913,26 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8">
         <v>455</v>
       </c>
-      <c r="D16" s="1">
-        <v>382</v>
-      </c>
-      <c r="E16" s="1">
-        <v>136</v>
-      </c>
-      <c r="F16" s="14">
-        <v>256</v>
+      <c r="D16" s="8">
+        <v>362</v>
+      </c>
+      <c r="E16" s="8">
+        <v>66</v>
+      </c>
+      <c r="F16" s="12">
+        <v>325</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="10">
-        <v>455</v>
-      </c>
-      <c r="D17" s="16">
-        <v>382</v>
-      </c>
-      <c r="E17" s="10">
-        <v>2</v>
-      </c>
-      <c r="F17" s="17">
-        <v>2</v>
-      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -986,15 +945,11 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="12"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-    </row>
+    <row r="20" spans="2:10" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
@@ -1009,7 +964,7 @@
     <row r="24" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="20"/>
+      <c r="D24" s="15"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
@@ -1083,13 +1038,12 @@
     </row>
     <row r="52" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4"/>
-      <c r="C52" s="20"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
